--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,63 +257,36 @@
     <t>Blok 1: Kansen en tellen</t>
   </si>
   <si>
-    <t>A1, A2, A3, B2 en B3</t>
-  </si>
-  <si>
     <t>Blok 2: Oppervlakte en inhoud</t>
   </si>
   <si>
-    <t>A1, A2, A3 en C1</t>
-  </si>
-  <si>
     <t>Blok 3: Kansrekening</t>
   </si>
   <si>
     <t>Blok 4: Statistiek</t>
   </si>
   <si>
-    <t>A1, A2, A3, B1 en B5</t>
-  </si>
-  <si>
     <t>Blok 5: Discrete kansmodellen</t>
   </si>
   <si>
-    <t>A1, A2, A3, B2, B4 en B6</t>
-  </si>
-  <si>
     <t>Blok 6: Ruimtelijke figuren</t>
   </si>
   <si>
-    <t>A1, A2, A3 en C2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden.  </t>
   </si>
   <si>
     <t xml:space="preserve">Blok 7: Continue kansmodellen </t>
   </si>
   <si>
-    <t>A1, A2, A3, B1, B2 en B6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blok 8: Toetsen en verbanden  </t>
   </si>
   <si>
-    <t>A1, A2, A3, B2, B4, B5 en B6</t>
-  </si>
-  <si>
     <t>Blok 9: Lineair programmeren</t>
   </si>
   <si>
-    <t>A1, A2, A3, D en E</t>
-  </si>
-  <si>
     <t>Blok 11: Meetkundige berekeningen</t>
   </si>
   <si>
-    <t>A1, A2, A3, C3 en C4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blok 10: Modelleren </t>
   </si>
   <si>
@@ -326,39 +299,21 @@
     <t>Blok 1: Combinatoriek</t>
   </si>
   <si>
-    <t>A1, A2, A3, B1 en B2</t>
-  </si>
-  <si>
     <t>Blok 2: Grafen</t>
   </si>
   <si>
-    <t>A1, A2, A3 en G</t>
-  </si>
-  <si>
     <t>Blok 3: Binomiale verdeling</t>
   </si>
   <si>
-    <t>A1 , A2, A3, B2, B3 en B4</t>
-  </si>
-  <si>
     <t>Blok 5: Normale verdeling</t>
   </si>
   <si>
-    <t>A1, A2, A3, B2 en B4</t>
-  </si>
-  <si>
     <t>Blok 4: Inproduct</t>
   </si>
   <si>
-    <t>A1 , A2, A3, D1 en D3</t>
-  </si>
-  <si>
     <t>Blok 6: Discrete dynamische modellen</t>
   </si>
   <si>
-    <t>A1, A2, A3, C1 en C3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden. </t>
   </si>
   <si>
@@ -368,58 +323,31 @@
     <t xml:space="preserve">Blok 9: Complexe getallen </t>
   </si>
   <si>
-    <t>A1, A2, A3, E1 en E2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blok 10: Hypothese toetsen </t>
   </si>
   <si>
-    <t>A1, A2, A3, B4, B5 en F</t>
-  </si>
-  <si>
     <t>Blok 11: Differentiaalvergelijkingen</t>
   </si>
   <si>
-    <t>A1, A2, A3, C2 en C3</t>
-  </si>
-  <si>
     <t>Blok 8: Vlakke meetkunde</t>
   </si>
   <si>
-    <t>A1 , A2, A3, D1, D3 en D4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blok 14: Continue dynamische modellen </t>
   </si>
   <si>
-    <t>A1, A2, A3, C2, C3  en F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggvraagd worden. </t>
   </si>
   <si>
     <t>Blok 13: Poissonverdeling</t>
   </si>
   <si>
-    <t>A1, A2, A3, B7en F</t>
-  </si>
-  <si>
     <t>Blok 15: Correlatie en regressie</t>
   </si>
   <si>
-    <t>A1, A2, A3, B6 en F</t>
-  </si>
-  <si>
     <t>Blok 16: Niet-Euclidische meetkunde</t>
   </si>
   <si>
-    <t>A1, A2, A3, F en G</t>
-  </si>
-  <si>
     <t>Blok 14: Continue dynamische modellen</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, C2, C3 en F</t>
   </si>
   <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden. </t>
@@ -1439,7 +1367,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1447,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1468,9 +1396,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1485,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -1506,9 +1432,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1523,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1544,9 +1468,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1562,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -1583,9 +1505,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1593,7 +1513,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1601,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -1622,9 +1542,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1640,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
@@ -1661,9 +1579,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>109</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1706,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2365,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2479,7 +2395,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2634,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I18" s="27">
         <v>1</v>
@@ -2655,9 +2571,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2666,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I19" s="27">
         <v>1</v>
@@ -2687,9 +2601,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>113</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2698,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I20" s="27">
         <v>1</v>
@@ -2719,9 +2631,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>115</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2730,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I21" s="27">
         <v>1</v>
@@ -2751,9 +2661,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2762,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I22" s="27">
         <v>1</v>
@@ -2783,9 +2691,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>119</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2794,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I23" s="27">
         <v>1</v>
@@ -2813,9 +2719,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>121</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -2835,7 +2739,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3289,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3403,7 +3307,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3763,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3782,9 +3686,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>124</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3793,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3812,9 +3714,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>126</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3823,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3842,9 +3742,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3853,7 +3751,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3870,9 +3768,7 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32" t="s">
-        <v>130</v>
-      </c>
+      <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -3936,7 +3832,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4289,7 +4185,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5244,7 +5140,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6060,7 +5956,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6876,7 +6772,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7617,9 +7513,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7634,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="27">
         <v>1</v>
@@ -7655,9 +7549,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7672,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -7693,9 +7585,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7711,7 +7601,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -7732,9 +7622,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>81</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7742,7 +7630,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7750,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -7771,9 +7659,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>83</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7789,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>1</v>
@@ -7810,9 +7696,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7855,7 +7739,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8628,7 +8512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8783,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8802,9 +8686,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8813,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8832,9 +8714,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>90</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8843,7 +8723,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8862,9 +8742,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8873,7 +8751,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
@@ -8892,9 +8770,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>94</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -8903,7 +8779,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
@@ -8922,9 +8798,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -8966,7 +8840,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9524,7 +9398,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633333333</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -1369,7 +1369,9 @@
       <c r="B6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>411</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1405,7 +1407,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>412</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1441,7 +1445,9 @@
       <c r="B8" s="2">
         <v>124</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>413</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1478,7 +1484,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>414</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1513,9 +1521,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>415</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1552,7 +1562,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>416</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1601,7 +1613,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>307</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1815,7 +1829,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>308</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -2020,7 +2036,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>309</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2395,7 +2413,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2467,7 +2485,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>310</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2544,7 +2564,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>417</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2574,7 +2596,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>418</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -2604,7 +2628,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>419</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2634,7 +2660,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>420</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2664,7 +2692,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>421</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2694,7 +2724,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>422</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2725,7 +2757,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>311</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2932,7 +2966,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>312</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3307,7 +3343,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3379,7 +3415,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>313</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3591,7 +3629,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>314</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3661,7 +3701,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>423</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3689,7 +3731,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>424</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3717,7 +3761,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>425</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3745,7 +3791,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>426</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3818,7 +3866,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>315</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4185,7 +4235,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5140,7 +5190,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5956,7 +6006,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6772,7 +6822,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7486,7 +7536,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7522,7 +7574,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>401</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7558,7 +7612,9 @@
       <c r="B8" s="2">
         <v>122</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>402</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7595,7 +7651,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>403</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7630,9 +7688,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>404</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7669,7 +7729,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>405</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7718,7 +7780,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>303</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7932,7 +7996,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>304</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8512,7 +8578,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8584,7 +8650,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>305</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8661,7 +8729,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>406</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8689,7 +8759,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>407</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -8717,7 +8789,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>408</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -8745,7 +8819,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>409</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -8773,7 +8849,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>410</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>2</v>
@@ -8826,7 +8904,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>306</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9398,7 +9478,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,42 +252,72 @@
     <t>WD</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Blok 1: Kansen en tellen</t>
   </si>
   <si>
+    <t>A1, A2, A3, B2 en B3</t>
+  </si>
+  <si>
     <t>Blok 2: Oppervlakte en inhoud</t>
   </si>
   <si>
+    <t>A1, A2, A3 en C1</t>
+  </si>
+  <si>
     <t>Blok 3: Kansrekening</t>
   </si>
   <si>
     <t>Blok 4: Statistiek</t>
   </si>
   <si>
+    <t>A1, A2, A3, B1 en B5</t>
+  </si>
+  <si>
     <t>Blok 5: Discrete kansmodellen</t>
   </si>
   <si>
+    <t>A1, A2, A3, B2, B4 en B6</t>
+  </si>
+  <si>
     <t>Blok 6: Ruimtelijke figuren</t>
   </si>
   <si>
+    <t>A1, A2, A3 en C2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden.  </t>
   </si>
   <si>
     <t xml:space="preserve">Blok 7: Continue kansmodellen </t>
   </si>
   <si>
+    <t>A1, A2, A3, B1, B2 en B6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blok 8: Toetsen en verbanden  </t>
   </si>
   <si>
+    <t>A1, A2, A3, B2, B4, B5 en B6</t>
+  </si>
+  <si>
     <t>Blok 9: Lineair programmeren</t>
   </si>
   <si>
+    <t>A1, A2, A3, D en E</t>
+  </si>
+  <si>
     <t>Blok 11: Meetkundige berekeningen</t>
   </si>
   <si>
+    <t>A1, A2, A3, C3 en C4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blok 10: Modelleren </t>
   </si>
   <si>
@@ -299,21 +330,39 @@
     <t>Blok 1: Combinatoriek</t>
   </si>
   <si>
+    <t>A1, A2, A3, B1 en B2</t>
+  </si>
+  <si>
     <t>Blok 2: Grafen</t>
   </si>
   <si>
+    <t>A1, A2, A3 en G</t>
+  </si>
+  <si>
     <t>Blok 3: Binomiale verdeling</t>
   </si>
   <si>
+    <t>A1 , A2, A3, B2, B3 en B4</t>
+  </si>
+  <si>
     <t>Blok 5: Normale verdeling</t>
   </si>
   <si>
+    <t>A1, A2, A3, B2 en B4</t>
+  </si>
+  <si>
     <t>Blok 4: Inproduct</t>
   </si>
   <si>
+    <t>A1 , A2, A3, D1 en D3</t>
+  </si>
+  <si>
     <t>Blok 6: Discrete dynamische modellen</t>
   </si>
   <si>
+    <t>A1, A2, A3, C1 en C3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bij de schriftelijke toetsen vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden. </t>
   </si>
   <si>
@@ -323,31 +372,61 @@
     <t xml:space="preserve">Blok 9: Complexe getallen </t>
   </si>
   <si>
+    <t>Formuleblad</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, E1 en E2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blok 10: Hypothese toetsen </t>
   </si>
   <si>
+    <t>A1, A2, A3, B4, B5 en F</t>
+  </si>
+  <si>
     <t>Blok 11: Differentiaalvergelijkingen</t>
   </si>
   <si>
+    <t>A1, A2, A3, C2 en C3</t>
+  </si>
+  <si>
     <t>Blok 8: Vlakke meetkunde</t>
   </si>
   <si>
+    <t>A1 , A2, A3, D1, D3 en D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blok 14: Continue dynamische modellen </t>
   </si>
   <si>
+    <t>A1, A2, A3, C2, C3  en F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggvraagd worden. </t>
   </si>
   <si>
     <t>Blok 13: Poissonverdeling</t>
   </si>
   <si>
+    <t>A1, A2, A3, B7en F</t>
+  </si>
+  <si>
     <t>Blok 15: Correlatie en regressie</t>
   </si>
   <si>
+    <t>A1, A2, A3, B6 en F</t>
+  </si>
+  <si>
     <t>Blok 16: Niet-Euclidische meetkunde</t>
   </si>
   <si>
+    <t>A1, A2, A3, F en G</t>
+  </si>
+  <si>
     <t>Blok 14: Continue dynamische modellen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, C2, C3 en F</t>
   </si>
   <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden. </t>
@@ -1279,12 +1358,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1306,25 +1385,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WD leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>12</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1366,37 +1441,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2">
-        <v>411</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1404,37 +1467,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>412</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1442,37 +1493,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>124</v>
-      </c>
-      <c r="D8" s="2">
-        <v>413</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1482,36 +1521,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>414</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1521,36 +1550,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>415</v>
-      </c>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1562,34 +1581,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>416</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1608,17 +1617,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>307</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1633,11 +1640,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>95</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1652,7 +1657,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WD leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1829,12 +1834,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>308</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1859,7 +1862,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WD leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2036,12 +2039,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>309</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2115,44 +2116,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2216,7 +2179,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2247,7 +2210,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WD leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>WD leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2299,84 +2262,120 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>411</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>412</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>125</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="D8" s="2">
+        <v>413</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -2384,28 +2383,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>414</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2413,28 +2424,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>415</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -2444,26 +2467,38 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>416</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2480,17 +2515,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2505,9 +2540,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>111</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2522,7 +2559,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WD leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>WD leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2564,192 +2601,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>417</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="27">
-        <v>1</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>50</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>418</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>419</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>50</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>420</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>50</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>421</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>50</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>422</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="27">
-        <v>1</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2758,11 +2737,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2772,9 +2751,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>102</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2789,7 +2766,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WD leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>WD leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2967,11 +2944,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3104,6 +3081,952 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WD leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>310</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WD leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>417</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>50</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>418</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>419</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>50</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>420</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>421</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="27">
+        <v>50</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>422</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="27">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>311</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WD leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>312</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3229,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3343,7 +4266,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3709,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3726,9 +4649,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3739,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3756,9 +4681,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3769,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3786,9 +4713,11 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2">
@@ -3799,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3816,7 +4745,9 @@
       <c r="O33" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="32"/>
+      <c r="P33" s="32" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
@@ -3882,7 +4813,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4235,7 +5166,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5190,7 +6121,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6006,7 +6937,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6630,12 +7561,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6657,6 +7588,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WD leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>301</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WD leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>302</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WD leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6822,7 +8618,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7402,936 +9198,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WD leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>400</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31">
-        <v>2</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>401</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>122</v>
-      </c>
-      <c r="D8" s="2">
-        <v>402</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>2</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>403</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>404</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>405</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>2</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>303</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WD leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>304</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WD leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8381,7 +9247,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8412,7 +9278,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WD leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>WD leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8464,84 +9330,120 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="31">
+        <v>2</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>401</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="D8" s="2">
+        <v>402</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>2</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8549,28 +9451,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>403</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8578,28 +9492,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>404</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8609,26 +9535,38 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>405</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8645,17 +9583,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8670,9 +9608,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8687,7 +9627,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WD leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>WD leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8729,152 +9669,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>406</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>50</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>407</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>408</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>50</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>409</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>50</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>410</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>600</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -8905,11 +9805,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8919,9 +9819,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>87</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8936,7 +9834,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WD leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>WD leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9116,7 +10014,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9286,12 +10184,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9313,21 +10211,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>WD leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>12</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9369,7 +10271,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9395,7 +10299,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9421,7 +10327,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>123</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9449,7 +10357,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9478,7 +10386,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9545,15 +10453,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>305</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9568,7 +10478,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9585,7 +10495,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>WD leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9627,114 +10537,164 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>406</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>50</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>407</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>408</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>50</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>409</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>50</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>2</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>410</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27">
+        <v>2</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
+      <c r="L22" s="27">
+        <v>600</v>
+      </c>
       <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
       <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -9762,10 +10722,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>306</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9775,7 +10737,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9790,7 +10754,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>WD leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9970,7 +10934,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WD leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -10044,6 +11008,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2401,7 +2401,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2">
         <v>404</v>
@@ -3553,7 +3553,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4683,7 +4683,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5763,7 +5763,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2">
         <v>415</v>
@@ -6917,7 +6917,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8073,7 +8073,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808969907</v>
+        <v>44341.376354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9193,7 +9193,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -825,21 +825,54 @@
     <t>H</t>
   </si>
   <si>
+    <t>Blok 1: Kansen en tellen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B2 en B3</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Blok 2: Oppervlakte en inhoud</t>
+  </si>
+  <si>
+    <t>A1, A2, A3 en C1</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Blok 3: Kansrekening</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Blok 4: Statistiek</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B1 en B5</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Blok 5: Discrete kansmodellen</t>
+  </si>
+  <si>
+    <t>A1, A2, A3, B2, B4 en B6</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>Blok 6: Ruimtelijke figuren</t>
+  </si>
+  <si>
+    <t>A1, A2, A3 en C2</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -850,39 +883,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Blok 1: Kansen en tellen</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, B2 en B3</t>
-  </si>
-  <si>
-    <t>Blok 2: Oppervlakte en inhoud</t>
-  </si>
-  <si>
-    <t>A1, A2, A3 en C1</t>
-  </si>
-  <si>
-    <t>Blok 3: Kansrekening</t>
-  </si>
-  <si>
-    <t>Blok 4: Statistiek</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, B1 en B5</t>
-  </si>
-  <si>
-    <t>Blok 5: Discrete kansmodellen</t>
-  </si>
-  <si>
-    <t>A1, A2, A3, B2, B4 en B6</t>
-  </si>
-  <si>
-    <t>Blok 6: Ruimtelijke figuren</t>
-  </si>
-  <si>
-    <t>A1, A2, A3 en C2</t>
   </si>
   <si>
     <t xml:space="preserve">Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Stof uit al behandelde blokken wordt bekend verondersteld en kan teruggevraagd worden.  </t>
@@ -2378,185 +2378,257 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>812</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>813</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>215</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>814</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>815</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629606481</v>
+      </c>
+      <c r="D10" s="2">
+        <v>816</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>817</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2577,7 +2649,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2607,7 +2679,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2628,7 +2700,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3465,7 +3537,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3487,13 +3559,13 @@
         <v>8</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3507,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -3529,13 +3601,13 @@
         <v>8</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>122</v>
@@ -3549,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3571,13 +3643,13 @@
         <v>8</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3592,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I9" s="43">
         <v>1</v>
@@ -3614,17 +3686,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
+        <v>44342.629606481</v>
       </c>
       <c r="D10" s="2">
         <v>404</v>
@@ -3635,7 +3707,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I10" s="43">
         <v>1</v>
@@ -3657,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3678,7 +3750,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I11" s="43">
         <v>1</v>
@@ -3700,13 +3772,13 @@
         <v>8</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3727,7 +3799,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3757,7 +3829,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3780,7 +3852,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3861,123 +3933,173 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>807</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>50</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>808</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>809</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>50</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>810</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>50</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>811</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>2</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>600</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -4633,7 +4755,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4663,7 +4785,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>123</v>
@@ -4693,7 +4815,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4724,11 +4846,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
+        <v>44342.629606481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4755,7 +4877,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4786,7 +4908,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4807,7 +4929,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4837,7 +4959,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4858,7 +4980,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5738,185 +5860,257 @@
       <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>828</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="27">
+        <v>2</v>
+      </c>
       <c r="O6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>829</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>216</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>830</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>2</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>831</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>2</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629606481</v>
+      </c>
+      <c r="D10" s="2">
+        <v>832</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>833</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="23">
+        <v>1</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5937,7 +6131,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5967,7 +6161,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5988,7 +6182,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6855,7 +7049,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6897,7 +7091,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>124</v>
@@ -6939,7 +7133,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6982,11 +7176,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
+        <v>44342.629606481</v>
       </c>
       <c r="D10" s="2">
         <v>415</v>
@@ -7025,7 +7219,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7068,7 +7262,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7089,7 +7283,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7119,7 +7313,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7142,7 +7336,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7223,147 +7417,221 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>822</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>50</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>823</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>824</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>50</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>825</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>50</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>2</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>826</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="23">
+        <v>50</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>827</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>2</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -7997,7 +8265,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -8027,7 +8295,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>125</v>
@@ -8057,7 +8325,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -8088,11 +8356,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
+        <v>44342.629606481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8119,7 +8387,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -8150,7 +8418,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8171,7 +8439,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8201,7 +8469,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8222,7 +8490,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8649,99 +8917,137 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>818</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>118</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>50</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>819</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>50</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>820</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>122</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>50</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>821</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>124</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>2</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
@@ -9153,7 +9459,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9183,7 +9489,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>126</v>
@@ -9213,7 +9519,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9244,11 +9550,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382384259</v>
+        <v>44342.629606481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9275,7 +9581,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9306,7 +9612,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9327,7 +9633,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9357,7 +9663,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9378,7 +9684,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WD PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Blok 1: Kansen en tellen</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>A1, A2, A3, B2 en B3</t>
@@ -2566,10 +2569,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -2634,7 +2637,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2647,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2666,10 +2669,10 @@
         <v>4</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2734,7 +2737,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>215</v>
@@ -2747,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2766,10 +2769,10 @@
         <v>4</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2848,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2867,10 +2870,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2935,11 +2938,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3136,7 +3139,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3175,14 +3178,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3207,7 +3210,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4852,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4920,7 +4923,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4933,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4952,10 +4955,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -5020,7 +5023,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>122</v>
@@ -5033,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -5052,10 +5055,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5134,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -5153,10 +5156,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5221,11 +5224,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2">
         <v>404</v>
@@ -5235,7 +5238,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5254,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5336,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -5355,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5423,7 +5426,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5446,7 +5449,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5485,14 +5488,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5623,7 +5626,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5640,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5715,7 +5718,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5730,10 +5733,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5805,7 +5808,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5822,10 +5825,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6184,7 +6187,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7248,7 +7251,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7336,7 +7339,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>123</v>
@@ -7424,7 +7427,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7513,11 +7516,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7602,7 +7605,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7691,7 +7694,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7753,7 +7756,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7889,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7906,10 +7909,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7981,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7998,10 +8001,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -8073,7 +8076,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -8090,10 +8093,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8165,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8182,10 +8185,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8257,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -8274,10 +8277,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9451,7 +9454,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2">
         <v>828</v>
@@ -9461,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9480,10 +9483,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -9548,7 +9551,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9561,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9580,10 +9583,10 @@
         <v>4</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -9648,7 +9651,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>216</v>
@@ -9661,7 +9664,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9680,10 +9683,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -9748,7 +9751,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9762,7 +9765,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9781,10 +9784,10 @@
         <v>4</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9849,11 +9852,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541018519</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -10027,7 +10030,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -10050,7 +10053,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -10089,14 +10092,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -10121,7 +10124,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11739,7 +11742,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2">
         <v>411</v>
@@ -11749,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11768,10 +11771,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11836,7 +11839,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11849,7 +11852,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11868,10 +11871,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11936,7 +11939,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>124</v>
@@ -11949,7 +11952,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11968,10 +11971,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -12036,7 +12039,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -12050,7 +12053,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -12069,10 +12072,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -12137,11 +12140,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2">
         <v>415</v>
@@ -12151,7 +12154,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -12170,10 +12173,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12238,7 +12241,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12252,7 +12255,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" s="45">
         <v>1</v>
@@ -12271,10 +12274,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -12339,7 +12342,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12362,7 +12365,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12401,14 +12404,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12433,7 +12436,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12539,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -12558,10 +12561,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -12633,7 +12636,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12642,7 +12645,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -12654,10 +12657,10 @@
         <v>4</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12729,7 +12732,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -12746,10 +12749,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12821,7 +12824,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12830,7 +12833,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -12842,10 +12845,10 @@
         <v>4</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -13122,7 +13125,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -14103,7 +14106,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14188,7 +14191,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14276,7 +14279,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>125</v>
@@ -14364,7 +14367,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14453,11 +14456,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.45125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14542,7 +14545,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14631,7 +14634,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14654,7 +14657,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14693,7 +14696,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14723,7 +14726,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14829,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -14848,10 +14851,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14923,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I19" s="45">
         <v>1</v>
@@ -14932,7 +14935,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -14944,10 +14947,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -15019,7 +15022,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -15038,10 +15041,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15113,7 +15116,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -15132,10 +15135,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15207,7 +15210,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -15216,7 +15219,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L22" s="45">
         <v>50</v>
@@ -15228,10 +15231,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15303,7 +15306,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -15320,10 +15323,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -15436,7 +15439,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15560,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15577,10 +15580,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15652,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15669,10 +15672,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15744,7 +15747,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15761,10 +15764,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15836,7 +15839,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -15851,10 +15854,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -16101,7 +16104,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16457,7 +16460,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16542,7 +16545,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16630,7 +16633,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2">
         <v>126</v>
@@ -16718,7 +16721,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16807,11 +16810,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541030093</v>
+        <v>44378.451261574</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16896,7 +16899,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16985,7 +16988,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -17008,7 +17011,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -17047,7 +17050,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -17077,7 +17080,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17838,7 +17841,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17855,10 +17858,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17930,7 +17933,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17947,10 +17950,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -18022,7 +18025,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -18039,10 +18042,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18114,7 +18117,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -18129,10 +18132,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -18379,7 +18382,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
